--- a/Divisions/E3.xlsx
+++ b/Divisions/E3.xlsx
@@ -12,12 +12,13 @@
     <sheet name="Goals conceded" r:id="rId6" sheetId="4"/>
     <sheet name="Total Goals form" r:id="rId7" sheetId="5"/>
     <sheet name="Goal totals v2" r:id="rId8" sheetId="6"/>
+    <sheet name="L6" r:id="rId9" sheetId="7"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8994" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9118" uniqueCount="326">
   <si>
     <t>Team</t>
   </si>
@@ -695,6 +696,306 @@
   </si>
   <si>
     <t>2.1778</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Goals scored</t>
+  </si>
+  <si>
+    <t>Goals conceded</t>
+  </si>
+  <si>
+    <t>Total Goals</t>
+  </si>
+  <si>
+    <t>Barrow,W L L L W L</t>
+  </si>
+  <si>
+    <t>Bolton,W W L W W L</t>
+  </si>
+  <si>
+    <t>Bradford,L L L L L D</t>
+  </si>
+  <si>
+    <t>Cambridge,D L W W L L</t>
+  </si>
+  <si>
+    <t>Carlisle,D D L D D W</t>
+  </si>
+  <si>
+    <t>Cheltenham,W L W W D L</t>
+  </si>
+  <si>
+    <t>Colchester,D L W W L W</t>
+  </si>
+  <si>
+    <t>Crawley Town,D W W L D D</t>
+  </si>
+  <si>
+    <t>Exeter,L D D D W W</t>
+  </si>
+  <si>
+    <t>Forest Green,L W D D L W</t>
+  </si>
+  <si>
+    <t>Grimsby,L W L W L W</t>
+  </si>
+  <si>
+    <t>Harrogate,L D W L D W</t>
+  </si>
+  <si>
+    <t>Leyton Orient,L D W L L L</t>
+  </si>
+  <si>
+    <t>Mansfield,D D W W L W</t>
+  </si>
+  <si>
+    <t>Morecambe,L W W W L W</t>
+  </si>
+  <si>
+    <t>Newport County,D L W D W W</t>
+  </si>
+  <si>
+    <t>Oldham,W W L W L L</t>
+  </si>
+  <si>
+    <t>Port Vale,W W D W W L</t>
+  </si>
+  <si>
+    <t>Salford,L D W W W L</t>
+  </si>
+  <si>
+    <t>Scunthorpe,L L L L L D</t>
+  </si>
+  <si>
+    <t>Southend,D D D L W W</t>
+  </si>
+  <si>
+    <t>Stevenage,D L L L W D</t>
+  </si>
+  <si>
+    <t>Tranmere,D L D W W L</t>
+  </si>
+  <si>
+    <t>Walsall,W W L L W L</t>
+  </si>
+  <si>
+    <t>Barrow,2 0 0 0 2 1</t>
+  </si>
+  <si>
+    <t>Bolton,2 1 1 1 1 1</t>
+  </si>
+  <si>
+    <t>Bradford,0 1 0 1 0 0</t>
+  </si>
+  <si>
+    <t>Cambridge,1 1 1 4 0 4</t>
+  </si>
+  <si>
+    <t>Carlisle,0 0 0 1 1 3</t>
+  </si>
+  <si>
+    <t>Cheltenham,1 0 1 1 1 0</t>
+  </si>
+  <si>
+    <t>Colchester,1 2 2 2 0 1</t>
+  </si>
+  <si>
+    <t>Crawley Town,0 2 1 0 0 3</t>
+  </si>
+  <si>
+    <t>Exeter,1 0 0 0 3 2</t>
+  </si>
+  <si>
+    <t>Forest Green,1 3 0 0 0 2</t>
+  </si>
+  <si>
+    <t>Grimsby,0 2 0 2 2 1</t>
+  </si>
+  <si>
+    <t>Harrogate,1 2 2 0 1 5</t>
+  </si>
+  <si>
+    <t>Leyton Orient,0 2 2 2 1 2</t>
+  </si>
+  <si>
+    <t>Mansfield,0 1 1 3 0 4</t>
+  </si>
+  <si>
+    <t>Morecambe,0 4 4 3 0 2</t>
+  </si>
+  <si>
+    <t>Newport County,0 0 2 0 4 1</t>
+  </si>
+  <si>
+    <t>Oldham,4 5 3 3 1 1</t>
+  </si>
+  <si>
+    <t>Port Vale,2 1 0 2 2 0</t>
+  </si>
+  <si>
+    <t>Salford,0 0 2 2 1 0</t>
+  </si>
+  <si>
+    <t>Scunthorpe,1 2 0 0 0 0</t>
+  </si>
+  <si>
+    <t>Southend,1 0 0 0 2 2</t>
+  </si>
+  <si>
+    <t>Stevenage,1 1 0 0 1 3</t>
+  </si>
+  <si>
+    <t>Tranmere,0 0 0 1 1 1</t>
+  </si>
+  <si>
+    <t>Walsall,2 1 1 0 2 0</t>
+  </si>
+  <si>
+    <t>Barrow,1 2 2 1 0 2</t>
+  </si>
+  <si>
+    <t>Bolton,1 0 2 0 0 2</t>
+  </si>
+  <si>
+    <t>Bradford,2 2 1 2 1 0</t>
+  </si>
+  <si>
+    <t>Cambridge,1 4 0 2 1 5</t>
+  </si>
+  <si>
+    <t>Carlisle,0 0 1 1 1 2</t>
+  </si>
+  <si>
+    <t>Cheltenham,0 1 0 0 1 1</t>
+  </si>
+  <si>
+    <t>Colchester,1 5 1 0 1 0</t>
+  </si>
+  <si>
+    <t>Crawley Town,0 0 0 2 0 3</t>
+  </si>
+  <si>
+    <t>Exeter,2 0 0 0 2 1</t>
+  </si>
+  <si>
+    <t>Forest Green,2 2 0 0 2 1</t>
+  </si>
+  <si>
+    <t>Grimsby,1 1 3 1 3 0</t>
+  </si>
+  <si>
+    <t>Harrogate,2 2 1 3 1 4</t>
+  </si>
+  <si>
+    <t>Leyton Orient,1 2 0 4 2 3</t>
+  </si>
+  <si>
+    <t>Mansfield,0 1 0 0 2 1</t>
+  </si>
+  <si>
+    <t>Morecambe,1 1 3 0 1 0</t>
+  </si>
+  <si>
+    <t>Newport County,0 1 0 0 0 0</t>
+  </si>
+  <si>
+    <t>Oldham,1 2 4 0 2 4</t>
+  </si>
+  <si>
+    <t>Port Vale,0 0 0 0 1 1</t>
+  </si>
+  <si>
+    <t>Salford,1 0 0 0 0 1</t>
+  </si>
+  <si>
+    <t>Scunthorpe,4 3 3 2 4 0</t>
+  </si>
+  <si>
+    <t>Southend,1 0 0 2 1 1</t>
+  </si>
+  <si>
+    <t>Stevenage,1 2 1 1 0 3</t>
+  </si>
+  <si>
+    <t>Tranmere,0 1 0 0 0 2</t>
+  </si>
+  <si>
+    <t>Walsall,1 0 2 2 0 2</t>
+  </si>
+  <si>
+    <t>Barrow,3 2 2 1 2 3</t>
+  </si>
+  <si>
+    <t>Bolton,3 1 3 1 1 3</t>
+  </si>
+  <si>
+    <t>Bradford,2 3 1 3 1 0</t>
+  </si>
+  <si>
+    <t>Cambridge,2 5 1 6 1 9</t>
+  </si>
+  <si>
+    <t>Carlisle,0 0 1 2 2 5</t>
+  </si>
+  <si>
+    <t>Cheltenham,1 1 1 1 2 1</t>
+  </si>
+  <si>
+    <t>Colchester,2 7 3 2 1 1</t>
+  </si>
+  <si>
+    <t>Crawley Town,0 2 1 2 0 6</t>
+  </si>
+  <si>
+    <t>Exeter,3 0 0 0 5 3</t>
+  </si>
+  <si>
+    <t>Forest Green,3 5 0 0 2 3</t>
+  </si>
+  <si>
+    <t>Grimsby,1 3 3 3 5 1</t>
+  </si>
+  <si>
+    <t>Harrogate,3 4 3 3 2 9</t>
+  </si>
+  <si>
+    <t>Leyton Orient,1 4 2 6 3 5</t>
+  </si>
+  <si>
+    <t>Mansfield,0 2 1 3 2 5</t>
+  </si>
+  <si>
+    <t>Morecambe,1 5 7 3 1 2</t>
+  </si>
+  <si>
+    <t>Newport County,0 1 2 0 4 1</t>
+  </si>
+  <si>
+    <t>Oldham,5 7 7 3 3 5</t>
+  </si>
+  <si>
+    <t>Port Vale,2 1 0 2 3 1</t>
+  </si>
+  <si>
+    <t>Salford,1 0 2 2 1 1</t>
+  </si>
+  <si>
+    <t>Scunthorpe,5 5 3 2 4 0</t>
+  </si>
+  <si>
+    <t>Southend,2 0 0 2 3 3</t>
+  </si>
+  <si>
+    <t>Stevenage,2 3 1 1 1 6</t>
+  </si>
+  <si>
+    <t>Tranmere,0 1 0 1 1 3</t>
+  </si>
+  <si>
+    <t>Walsall,3 1 3 2 2 2</t>
   </si>
 </sst>
 </file>
@@ -28101,4 +28402,440 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1"/>
+      <c r="B1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C2" t="s">
+        <v>254</v>
+      </c>
+      <c r="D2" t="s">
+        <v>278</v>
+      </c>
+      <c r="E2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C3" t="s">
+        <v>255</v>
+      </c>
+      <c r="D3" t="s">
+        <v>279</v>
+      </c>
+      <c r="E3" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>232</v>
+      </c>
+      <c r="C4" t="s">
+        <v>256</v>
+      </c>
+      <c r="D4" t="s">
+        <v>280</v>
+      </c>
+      <c r="E4" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>233</v>
+      </c>
+      <c r="C5" t="s">
+        <v>257</v>
+      </c>
+      <c r="D5" t="s">
+        <v>281</v>
+      </c>
+      <c r="E5" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>234</v>
+      </c>
+      <c r="C6" t="s">
+        <v>258</v>
+      </c>
+      <c r="D6" t="s">
+        <v>282</v>
+      </c>
+      <c r="E6" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>235</v>
+      </c>
+      <c r="C7" t="s">
+        <v>259</v>
+      </c>
+      <c r="D7" t="s">
+        <v>283</v>
+      </c>
+      <c r="E7" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>236</v>
+      </c>
+      <c r="C8" t="s">
+        <v>260</v>
+      </c>
+      <c r="D8" t="s">
+        <v>284</v>
+      </c>
+      <c r="E8" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>237</v>
+      </c>
+      <c r="C9" t="s">
+        <v>261</v>
+      </c>
+      <c r="D9" t="s">
+        <v>285</v>
+      </c>
+      <c r="E9" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>238</v>
+      </c>
+      <c r="C10" t="s">
+        <v>262</v>
+      </c>
+      <c r="D10" t="s">
+        <v>286</v>
+      </c>
+      <c r="E10" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>239</v>
+      </c>
+      <c r="C11" t="s">
+        <v>263</v>
+      </c>
+      <c r="D11" t="s">
+        <v>287</v>
+      </c>
+      <c r="E11" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>240</v>
+      </c>
+      <c r="C12" t="s">
+        <v>264</v>
+      </c>
+      <c r="D12" t="s">
+        <v>288</v>
+      </c>
+      <c r="E12" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>241</v>
+      </c>
+      <c r="C13" t="s">
+        <v>265</v>
+      </c>
+      <c r="D13" t="s">
+        <v>289</v>
+      </c>
+      <c r="E13" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>242</v>
+      </c>
+      <c r="C14" t="s">
+        <v>266</v>
+      </c>
+      <c r="D14" t="s">
+        <v>290</v>
+      </c>
+      <c r="E14" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>243</v>
+      </c>
+      <c r="C15" t="s">
+        <v>267</v>
+      </c>
+      <c r="D15" t="s">
+        <v>291</v>
+      </c>
+      <c r="E15" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>244</v>
+      </c>
+      <c r="C16" t="s">
+        <v>268</v>
+      </c>
+      <c r="D16" t="s">
+        <v>292</v>
+      </c>
+      <c r="E16" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" t="s">
+        <v>245</v>
+      </c>
+      <c r="C17" t="s">
+        <v>269</v>
+      </c>
+      <c r="D17" t="s">
+        <v>293</v>
+      </c>
+      <c r="E17" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>246</v>
+      </c>
+      <c r="C18" t="s">
+        <v>270</v>
+      </c>
+      <c r="D18" t="s">
+        <v>294</v>
+      </c>
+      <c r="E18" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" t="s">
+        <v>247</v>
+      </c>
+      <c r="C19" t="s">
+        <v>271</v>
+      </c>
+      <c r="D19" t="s">
+        <v>295</v>
+      </c>
+      <c r="E19" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" t="s">
+        <v>248</v>
+      </c>
+      <c r="C20" t="s">
+        <v>272</v>
+      </c>
+      <c r="D20" t="s">
+        <v>296</v>
+      </c>
+      <c r="E20" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" t="s">
+        <v>249</v>
+      </c>
+      <c r="C21" t="s">
+        <v>273</v>
+      </c>
+      <c r="D21" t="s">
+        <v>297</v>
+      </c>
+      <c r="E21" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" t="s">
+        <v>250</v>
+      </c>
+      <c r="C22" t="s">
+        <v>274</v>
+      </c>
+      <c r="D22" t="s">
+        <v>298</v>
+      </c>
+      <c r="E22" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" t="s">
+        <v>251</v>
+      </c>
+      <c r="C23" t="s">
+        <v>275</v>
+      </c>
+      <c r="D23" t="s">
+        <v>299</v>
+      </c>
+      <c r="E23" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" t="s">
+        <v>252</v>
+      </c>
+      <c r="C24" t="s">
+        <v>276</v>
+      </c>
+      <c r="D24" t="s">
+        <v>300</v>
+      </c>
+      <c r="E24" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" t="s">
+        <v>253</v>
+      </c>
+      <c r="C25" t="s">
+        <v>277</v>
+      </c>
+      <c r="D25" t="s">
+        <v>301</v>
+      </c>
+      <c r="E25" t="s">
+        <v>325</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/Divisions/E3.xlsx
+++ b/Divisions/E3.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9434" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9459" uniqueCount="522">
   <si>
     <t>Team</t>
   </si>
@@ -1224,6 +1224,9 @@
     <t>Total Goals</t>
   </si>
   <si>
+    <t>Team against</t>
+  </si>
+  <si>
     <t>Barrow,L L L W L D</t>
   </si>
   <si>
@@ -1510,6 +1513,78 @@
   </si>
   <si>
     <t>Walsall,1 3 2 2 2 0</t>
+  </si>
+  <si>
+    <t>Barrow,Leyton Orient Port Vale Tranmere Forest Green Southend Exeter</t>
+  </si>
+  <si>
+    <t>Bolton,Salford Grimsby Carlisle Morecambe Exeter Crawley Town</t>
+  </si>
+  <si>
+    <t>Bradford,Harrogate Tranmere Port Vale Salford Scunthorpe Morecambe</t>
+  </si>
+  <si>
+    <t>Cambridge,Exeter Newport County Leyton Orient Stevenage Harrogate Grimsby</t>
+  </si>
+  <si>
+    <t>Carlisle,Port Vale Bolton Harrogate Cheltenham Leyton Orient Walsall</t>
+  </si>
+  <si>
+    <t>Cheltenham,Crawley Town Stevenage Colchester Carlisle Newport County Harrogate</t>
+  </si>
+  <si>
+    <t>Colchester,Oldham Walsall Southend Cheltenham Salford Tranmere</t>
+  </si>
+  <si>
+    <t>Crawley Town,Bradford Cheltenham Newport County Forest Green Stevenage Bolton</t>
+  </si>
+  <si>
+    <t>Exeter,Southend Forest Green Newport County Grimsby Bolton Barrow</t>
+  </si>
+  <si>
+    <t>Forest Green,Scunthorpe Exeter Crawley Town Barrow Tranmere Oldham</t>
+  </si>
+  <si>
+    <t>Grimsby,Bolton Morecambe Oldham Exeter Port Vale Cambridge</t>
+  </si>
+  <si>
+    <t>Harrogate,Leyton Orient Bradford Oldham Carlisle Cambridge Cheltenham</t>
+  </si>
+  <si>
+    <t>Leyton Orient,Harrogate Barrow Cambridge Southend Carlisle Salford</t>
+  </si>
+  <si>
+    <t>Mansfield,Newport County Stevenage Scunthorpe Salford Oldham Port Vale</t>
+  </si>
+  <si>
+    <t>Morecambe,Scunthorpe Oldham Grimsby Bolton Walsall Bradford</t>
+  </si>
+  <si>
+    <t>Newport County,Cambridge Crawley Town Exeter Scunthorpe Cheltenham Southend</t>
+  </si>
+  <si>
+    <t>Oldham,Colchester Morecambe Harrogate Grimsby Mansfield Forest Green</t>
+  </si>
+  <si>
+    <t>Port Vale,Morecambe Carlisle Barrow Bradford Grimsby Mansfield</t>
+  </si>
+  <si>
+    <t>Salford,Tranmere Walsall Mansfield Bradford Colchester Leyton Orient</t>
+  </si>
+  <si>
+    <t>Scunthorpe,Forest Green Mansfield Walsall Newport County Bradford Stevenage</t>
+  </si>
+  <si>
+    <t>Southend,Crawley Town Exeter Colchester Leyton Orient Barrow Newport County</t>
+  </si>
+  <si>
+    <t>Stevenage,Salford Mansfield Cheltenham Cambridge Crawley Town Scunthorpe</t>
+  </si>
+  <si>
+    <t>Tranmere,Walsall Salford Bradford Barrow Forest Green Colchester</t>
+  </si>
+  <si>
+    <t>Walsall,Tranmere Colchester Salford Scunthorpe Morecambe Carlisle</t>
   </si>
 </sst>
 </file>
@@ -31176,22 +31251,28 @@
       <c r="E1" t="s">
         <v>400</v>
       </c>
+      <c r="F1" t="s">
+        <v>401</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C2" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D2" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="E2" t="s">
-        <v>473</v>
+        <v>474</v>
+      </c>
+      <c r="F2" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="3">
@@ -31199,16 +31280,19 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C3" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D3" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="E3" t="s">
-        <v>474</v>
+        <v>475</v>
+      </c>
+      <c r="F3" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="4">
@@ -31216,16 +31300,19 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C4" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D4" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="E4" t="s">
-        <v>475</v>
+        <v>476</v>
+      </c>
+      <c r="F4" t="s">
+        <v>500</v>
       </c>
     </row>
     <row r="5">
@@ -31233,16 +31320,19 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C5" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D5" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="E5" t="s">
-        <v>476</v>
+        <v>477</v>
+      </c>
+      <c r="F5" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="6">
@@ -31250,16 +31340,19 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C6" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D6" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="E6" t="s">
-        <v>477</v>
+        <v>478</v>
+      </c>
+      <c r="F6" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="7">
@@ -31267,16 +31360,19 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C7" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D7" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="E7" t="s">
-        <v>478</v>
+        <v>479</v>
+      </c>
+      <c r="F7" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="8">
@@ -31284,16 +31380,19 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C8" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D8" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="E8" t="s">
-        <v>479</v>
+        <v>480</v>
+      </c>
+      <c r="F8" t="s">
+        <v>504</v>
       </c>
     </row>
     <row r="9">
@@ -31301,16 +31400,19 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C9" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D9" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="E9" t="s">
-        <v>480</v>
+        <v>481</v>
+      </c>
+      <c r="F9" t="s">
+        <v>505</v>
       </c>
     </row>
     <row r="10">
@@ -31318,16 +31420,19 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C10" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D10" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="E10" t="s">
-        <v>481</v>
+        <v>482</v>
+      </c>
+      <c r="F10" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="11">
@@ -31335,16 +31440,19 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C11" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D11" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="E11" t="s">
-        <v>482</v>
+        <v>483</v>
+      </c>
+      <c r="F11" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="12">
@@ -31352,16 +31460,19 @@
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C12" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D12" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="E12" t="s">
-        <v>483</v>
+        <v>484</v>
+      </c>
+      <c r="F12" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="13">
@@ -31369,16 +31480,19 @@
         <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C13" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D13" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="E13" t="s">
-        <v>484</v>
+        <v>485</v>
+      </c>
+      <c r="F13" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="14">
@@ -31386,16 +31500,19 @@
         <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C14" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D14" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E14" t="s">
-        <v>485</v>
+        <v>486</v>
+      </c>
+      <c r="F14" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="15">
@@ -31403,16 +31520,19 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C15" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D15" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="E15" t="s">
-        <v>486</v>
+        <v>487</v>
+      </c>
+      <c r="F15" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="16">
@@ -31420,16 +31540,19 @@
         <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C16" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D16" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="E16" t="s">
-        <v>487</v>
+        <v>488</v>
+      </c>
+      <c r="F16" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="17">
@@ -31437,16 +31560,19 @@
         <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C17" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D17" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="E17" t="s">
-        <v>488</v>
+        <v>489</v>
+      </c>
+      <c r="F17" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="18">
@@ -31454,16 +31580,19 @@
         <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C18" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D18" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="E18" t="s">
-        <v>489</v>
+        <v>490</v>
+      </c>
+      <c r="F18" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="19">
@@ -31471,16 +31600,19 @@
         <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C19" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D19" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="E19" t="s">
-        <v>490</v>
+        <v>491</v>
+      </c>
+      <c r="F19" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="20">
@@ -31488,16 +31620,19 @@
         <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C20" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D20" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="E20" t="s">
-        <v>491</v>
+        <v>492</v>
+      </c>
+      <c r="F20" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="21">
@@ -31505,16 +31640,19 @@
         <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C21" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D21" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="E21" t="s">
-        <v>492</v>
+        <v>493</v>
+      </c>
+      <c r="F21" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="22">
@@ -31522,16 +31660,19 @@
         <v>29</v>
       </c>
       <c r="B22" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C22" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D22" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="E22" t="s">
-        <v>493</v>
+        <v>494</v>
+      </c>
+      <c r="F22" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="23">
@@ -31539,16 +31680,19 @@
         <v>30</v>
       </c>
       <c r="B23" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C23" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D23" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="E23" t="s">
-        <v>494</v>
+        <v>495</v>
+      </c>
+      <c r="F23" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="24">
@@ -31556,16 +31700,19 @@
         <v>31</v>
       </c>
       <c r="B24" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C24" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D24" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="E24" t="s">
-        <v>495</v>
+        <v>496</v>
+      </c>
+      <c r="F24" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="25">
@@ -31573,16 +31720,19 @@
         <v>32</v>
       </c>
       <c r="B25" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C25" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D25" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="E25" t="s">
-        <v>496</v>
+        <v>497</v>
+      </c>
+      <c r="F25" t="s">
+        <v>521</v>
       </c>
     </row>
   </sheetData>

--- a/Divisions/E3.xlsx
+++ b/Divisions/E3.xlsx
@@ -1299,220 +1299,220 @@
     <t>Walsall,W L L W L D</t>
   </si>
   <si>
-    <t>Barrow,0 0 0 2 1 1</t>
-  </si>
-  <si>
-    <t>Bolton,1 1 1 1 1 4</t>
-  </si>
-  <si>
-    <t>Bradford,1 0 1 0 0 0</t>
-  </si>
-  <si>
-    <t>Cambridge,1 1 4 0 4 3</t>
-  </si>
-  <si>
-    <t>Carlisle,0 0 1 1 3 0</t>
-  </si>
-  <si>
-    <t>Cheltenham,0 1 1 1 0 4</t>
-  </si>
-  <si>
-    <t>Colchester,2 2 2 0 1 0</t>
-  </si>
-  <si>
-    <t>Crawley Town,2 1 0 0 3 1</t>
-  </si>
-  <si>
-    <t>Exeter,0 0 0 3 2 1</t>
-  </si>
-  <si>
-    <t>Forest Green,3 0 0 0 2 3</t>
-  </si>
-  <si>
-    <t>Grimsby,2 0 2 2 1 0</t>
-  </si>
-  <si>
-    <t>Harrogate,2 2 0 1 5 1</t>
-  </si>
-  <si>
-    <t>Leyton Orient,2 2 2 1 2 0</t>
-  </si>
-  <si>
-    <t>Mansfield,1 1 3 0 4 3</t>
-  </si>
-  <si>
-    <t>Morecambe,4 4 3 0 2 2</t>
-  </si>
-  <si>
-    <t>Newport County,0 2 0 4 1 1</t>
-  </si>
-  <si>
-    <t>Oldham,5 3 3 1 1 0</t>
-  </si>
-  <si>
-    <t>Port Vale,1 0 2 2 0 0</t>
-  </si>
-  <si>
-    <t>Salford,0 2 2 1 0 3</t>
-  </si>
-  <si>
-    <t>Scunthorpe,2 0 0 0 0 0</t>
-  </si>
-  <si>
-    <t>Southend,0 0 0 2 2 1</t>
-  </si>
-  <si>
-    <t>Stevenage,1 0 0 1 3 1</t>
-  </si>
-  <si>
-    <t>Tranmere,0 0 1 1 1 0</t>
-  </si>
-  <si>
-    <t>Walsall,1 1 0 2 0 0</t>
-  </si>
-  <si>
-    <t>Barrow,2 2 1 0 2 1</t>
-  </si>
-  <si>
-    <t>Bolton,0 2 0 0 2 1</t>
-  </si>
-  <si>
-    <t>Bradford,2 1 2 1 0 2</t>
-  </si>
-  <si>
-    <t>Cambridge,4 0 2 1 5 0</t>
-  </si>
-  <si>
-    <t>Carlisle,0 1 1 1 2 0</t>
-  </si>
-  <si>
-    <t>Cheltenham,1 0 0 1 1 1</t>
-  </si>
-  <si>
-    <t>Colchester,5 1 0 1 0 0</t>
-  </si>
-  <si>
-    <t>Crawley Town,0 0 2 0 3 4</t>
-  </si>
-  <si>
-    <t>Exeter,0 0 0 2 1 1</t>
-  </si>
-  <si>
-    <t>Forest Green,2 0 0 2 1 0</t>
-  </si>
-  <si>
-    <t>Grimsby,1 3 1 3 0 3</t>
-  </si>
-  <si>
-    <t>Harrogate,2 1 3 1 4 4</t>
-  </si>
-  <si>
-    <t>Leyton Orient,2 0 4 2 3 3</t>
-  </si>
-  <si>
-    <t>Mansfield,1 0 0 2 1 0</t>
-  </si>
-  <si>
-    <t>Morecambe,1 3 0 1 0 0</t>
-  </si>
-  <si>
-    <t>Newport County,1 0 0 0 0 1</t>
-  </si>
-  <si>
-    <t>Oldham,2 4 0 2 4 3</t>
-  </si>
-  <si>
-    <t>Port Vale,0 0 0 1 1 3</t>
-  </si>
-  <si>
-    <t>Salford,0 0 0 0 1 0</t>
-  </si>
-  <si>
-    <t>Scunthorpe,3 3 2 4 0 1</t>
-  </si>
-  <si>
-    <t>Southend,0 0 2 1 1 1</t>
-  </si>
-  <si>
-    <t>Stevenage,2 1 1 0 3 0</t>
-  </si>
-  <si>
-    <t>Tranmere,1 0 0 0 2 0</t>
-  </si>
-  <si>
-    <t>Walsall,0 2 2 0 2 0</t>
-  </si>
-  <si>
-    <t>Barrow,2 2 1 2 3 2</t>
-  </si>
-  <si>
-    <t>Bolton,1 3 1 1 3 5</t>
-  </si>
-  <si>
-    <t>Bradford,3 1 3 1 0 2</t>
-  </si>
-  <si>
-    <t>Cambridge,5 1 6 1 9 3</t>
-  </si>
-  <si>
-    <t>Carlisle,0 1 2 2 5 0</t>
-  </si>
-  <si>
-    <t>Cheltenham,1 1 1 2 1 5</t>
-  </si>
-  <si>
-    <t>Colchester,7 3 2 1 1 0</t>
-  </si>
-  <si>
-    <t>Crawley Town,2 1 2 0 6 5</t>
-  </si>
-  <si>
-    <t>Exeter,0 0 0 5 3 2</t>
-  </si>
-  <si>
-    <t>Forest Green,5 0 0 2 3 3</t>
-  </si>
-  <si>
-    <t>Grimsby,3 3 3 5 1 3</t>
-  </si>
-  <si>
-    <t>Harrogate,4 3 3 2 9 5</t>
-  </si>
-  <si>
-    <t>Leyton Orient,4 2 6 3 5 3</t>
-  </si>
-  <si>
-    <t>Mansfield,2 1 3 2 5 3</t>
-  </si>
-  <si>
-    <t>Morecambe,5 7 3 1 2 2</t>
-  </si>
-  <si>
-    <t>Newport County,1 2 0 4 1 2</t>
-  </si>
-  <si>
-    <t>Oldham,7 7 3 3 5 3</t>
-  </si>
-  <si>
-    <t>Port Vale,1 0 2 3 1 3</t>
-  </si>
-  <si>
-    <t>Salford,0 2 2 1 1 3</t>
-  </si>
-  <si>
-    <t>Scunthorpe,5 3 2 4 0 1</t>
-  </si>
-  <si>
-    <t>Southend,0 0 2 3 3 2</t>
-  </si>
-  <si>
-    <t>Stevenage,3 1 1 1 6 1</t>
-  </si>
-  <si>
-    <t>Tranmere,1 0 1 1 3 0</t>
-  </si>
-  <si>
-    <t>Walsall,1 3 2 2 2 0</t>
+    <t>Barrow,0 0 0 2 1 1,(4)</t>
+  </si>
+  <si>
+    <t>Bolton,1 1 1 1 1 4,(9)</t>
+  </si>
+  <si>
+    <t>Bradford,1 0 1 0 0 0,(2)</t>
+  </si>
+  <si>
+    <t>Cambridge,1 1 4 0 4 3,(13)</t>
+  </si>
+  <si>
+    <t>Carlisle,0 0 1 1 3 0,(5)</t>
+  </si>
+  <si>
+    <t>Cheltenham,0 1 1 1 0 4,(7)</t>
+  </si>
+  <si>
+    <t>Colchester,2 2 2 0 1 0,(7)</t>
+  </si>
+  <si>
+    <t>Crawley Town,2 1 0 0 3 1,(7)</t>
+  </si>
+  <si>
+    <t>Exeter,0 0 0 3 2 1,(6)</t>
+  </si>
+  <si>
+    <t>Forest Green,3 0 0 0 2 3,(8)</t>
+  </si>
+  <si>
+    <t>Grimsby,2 0 2 2 1 0,(7)</t>
+  </si>
+  <si>
+    <t>Harrogate,2 2 0 1 5 1,(11)</t>
+  </si>
+  <si>
+    <t>Leyton Orient,2 2 2 1 2 0,(9)</t>
+  </si>
+  <si>
+    <t>Mansfield,1 1 3 0 4 3,(12)</t>
+  </si>
+  <si>
+    <t>Morecambe,4 4 3 0 2 2,(15)</t>
+  </si>
+  <si>
+    <t>Newport County,0 2 0 4 1 1,(8)</t>
+  </si>
+  <si>
+    <t>Oldham,5 3 3 1 1 0,(13)</t>
+  </si>
+  <si>
+    <t>Port Vale,1 0 2 2 0 0,(5)</t>
+  </si>
+  <si>
+    <t>Salford,0 2 2 1 0 3,(8)</t>
+  </si>
+  <si>
+    <t>Scunthorpe,2 0 0 0 0 0,(2)</t>
+  </si>
+  <si>
+    <t>Southend,0 0 0 2 2 1,(5)</t>
+  </si>
+  <si>
+    <t>Stevenage,1 0 0 1 3 1,(6)</t>
+  </si>
+  <si>
+    <t>Tranmere,0 0 1 1 1 0,(3)</t>
+  </si>
+  <si>
+    <t>Walsall,1 1 0 2 0 0,(4)</t>
+  </si>
+  <si>
+    <t>Barrow,2 2 1 0 2 1,(8)</t>
+  </si>
+  <si>
+    <t>Bolton,0 2 0 0 2 1,(5)</t>
+  </si>
+  <si>
+    <t>Bradford,2 1 2 1 0 2,(8)</t>
+  </si>
+  <si>
+    <t>Cambridge,4 0 2 1 5 0,(12)</t>
+  </si>
+  <si>
+    <t>Carlisle,0 1 1 1 2 0,(5)</t>
+  </si>
+  <si>
+    <t>Cheltenham,1 0 0 1 1 1,(4)</t>
+  </si>
+  <si>
+    <t>Colchester,5 1 0 1 0 0,(7)</t>
+  </si>
+  <si>
+    <t>Crawley Town,0 0 2 0 3 4,(9)</t>
+  </si>
+  <si>
+    <t>Exeter,0 0 0 2 1 1,(4)</t>
+  </si>
+  <si>
+    <t>Forest Green,2 0 0 2 1 0,(5)</t>
+  </si>
+  <si>
+    <t>Grimsby,1 3 1 3 0 3,(11)</t>
+  </si>
+  <si>
+    <t>Harrogate,2 1 3 1 4 4,(15)</t>
+  </si>
+  <si>
+    <t>Leyton Orient,2 0 4 2 3 3,(14)</t>
+  </si>
+  <si>
+    <t>Mansfield,1 0 0 2 1 0,(4)</t>
+  </si>
+  <si>
+    <t>Morecambe,1 3 0 1 0 0,(5)</t>
+  </si>
+  <si>
+    <t>Newport County,1 0 0 0 0 1,(2)</t>
+  </si>
+  <si>
+    <t>Oldham,2 4 0 2 4 3,(15)</t>
+  </si>
+  <si>
+    <t>Port Vale,0 0 0 1 1 3,(5)</t>
+  </si>
+  <si>
+    <t>Salford,0 0 0 0 1 0,(1)</t>
+  </si>
+  <si>
+    <t>Scunthorpe,3 3 2 4 0 1,(13)</t>
+  </si>
+  <si>
+    <t>Southend,0 0 2 1 1 1,(5)</t>
+  </si>
+  <si>
+    <t>Stevenage,2 1 1 0 3 0,(7)</t>
+  </si>
+  <si>
+    <t>Tranmere,1 0 0 0 2 0,(3)</t>
+  </si>
+  <si>
+    <t>Walsall,0 2 2 0 2 0,(6)</t>
+  </si>
+  <si>
+    <t>Barrow,2 2 1 2 3 2,(12)</t>
+  </si>
+  <si>
+    <t>Bolton,1 3 1 1 3 5,(14)</t>
+  </si>
+  <si>
+    <t>Bradford,3 1 3 1 0 2,(10)</t>
+  </si>
+  <si>
+    <t>Cambridge,5 1 6 1 9 3,(25)</t>
+  </si>
+  <si>
+    <t>Carlisle,0 1 2 2 5 0,(10)</t>
+  </si>
+  <si>
+    <t>Cheltenham,1 1 1 2 1 5,(11)</t>
+  </si>
+  <si>
+    <t>Colchester,7 3 2 1 1 0,(14)</t>
+  </si>
+  <si>
+    <t>Crawley Town,2 1 2 0 6 5,(16)</t>
+  </si>
+  <si>
+    <t>Exeter,0 0 0 5 3 2,(10)</t>
+  </si>
+  <si>
+    <t>Forest Green,5 0 0 2 3 3,(13)</t>
+  </si>
+  <si>
+    <t>Grimsby,3 3 3 5 1 3,(18)</t>
+  </si>
+  <si>
+    <t>Harrogate,4 3 3 2 9 5,(26)</t>
+  </si>
+  <si>
+    <t>Leyton Orient,4 2 6 3 5 3,(23)</t>
+  </si>
+  <si>
+    <t>Mansfield,2 1 3 2 5 3,(16)</t>
+  </si>
+  <si>
+    <t>Morecambe,5 7 3 1 2 2,(20)</t>
+  </si>
+  <si>
+    <t>Newport County,1 2 0 4 1 2,(10)</t>
+  </si>
+  <si>
+    <t>Oldham,7 7 3 3 5 3,(28)</t>
+  </si>
+  <si>
+    <t>Port Vale,1 0 2 3 1 3,(10)</t>
+  </si>
+  <si>
+    <t>Salford,0 2 2 1 1 3,(9)</t>
+  </si>
+  <si>
+    <t>Scunthorpe,5 3 2 4 0 1,(15)</t>
+  </si>
+  <si>
+    <t>Southend,0 0 2 3 3 2,(10)</t>
+  </si>
+  <si>
+    <t>Stevenage,3 1 1 1 6 1,(13)</t>
+  </si>
+  <si>
+    <t>Tranmere,1 0 1 1 3 0,(6)</t>
+  </si>
+  <si>
+    <t>Walsall,1 3 2 2 2 0,(10)</t>
   </si>
   <si>
     <t>Barrow,Leyton Orient Port Vale Tranmere Forest Green Southend Exeter</t>
